--- a/C#Models/CSharpLoans_Consumer/Data/Config.xlsx
+++ b/C#Models/CSharpLoans_Consumer/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/horea_soanca_uipath_com/Documents/Documents/Work/Demo_REF/Loans_Consumer/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubPhD\rpa-testing\C#Models\CSharpLoans_Consumer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{97407B2D-8CA9-4B93-8260-7655B2018F1B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C00DCD-9CC8-469A-9570-714311E537A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>UiBank Web App Address</t>
+  </si>
+  <si>
+    <t>UiBankCredentials</t>
   </si>
 </sst>
 </file>
@@ -508,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2691,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2747,7 +2750,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>

--- a/C#Models/CSharpLoans_Consumer/Data/Config.xlsx
+++ b/C#Models/CSharpLoans_Consumer/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubPhD\rpa-testing\C#Models\CSharpLoans_Consumer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C00DCD-9CC8-469A-9570-714311E537A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C4BA53-4D40-4B4D-A388-9BB109CA1948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1908" yWindow="1248" windowWidth="17280" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2694,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
